--- a/keep health616.xlsx
+++ b/keep health616.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="25440" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="计划轮廓" sheetId="1" r:id="rId1"/>
@@ -1889,6 +1889,9 @@
                 <c:pt idx="14">
                   <c:v>110.4</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2050,6 +2053,9 @@
                 <c:pt idx="13">
                   <c:v>111.7</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>111.8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2060,8 +2066,8 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84729856"/>
-        <c:axId val="84731392"/>
+        <c:axId val="85384192"/>
+        <c:axId val="85406848"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2214,6 +2220,9 @@
                 <c:pt idx="11">
                   <c:v>82</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2224,11 +2233,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="86594304"/>
-        <c:axId val="84732928"/>
+        <c:axId val="85422464"/>
+        <c:axId val="85408384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="84729856"/>
+        <c:axId val="85384192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,14 +2277,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84731392"/>
+        <c:crossAx val="85406848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84731392"/>
+        <c:axId val="85406848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,12 +2333,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84729856"/>
+        <c:crossAx val="85384192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84732928"/>
+        <c:axId val="85408384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2363,12 +2372,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86594304"/>
+        <c:crossAx val="85422464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="86594304"/>
+        <c:axId val="85422464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2385,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="yyyy/m/d" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="84732928"/>
+        <c:crossAx val="85408384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2458,7 +2467,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3027,7 +3036,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="http://s2.boohee.cn/food/star/mantou_junzhi-eebf1a1047a2c77b1611f7fa1530b522.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3073,7 +3082,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="http://s2.boohee.cn/food/star/mifen-5417640ffeef94b4890adc8f223575b6.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3128,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="http://s2.boohee.cn/food/star/lvdou-abb3662f6104fb8d05203374a6f71125.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3165,7 +3174,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="http://s2.boohee.cn/food/star/heimizhou-96bc011520f5fa9c449a0c04f462933a.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3220,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="http://s2.boohee.cn/food/star/jixiongfurou-838288502b3a279a85e51959b2625cbb.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3257,7 +3266,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="http://s2.boohee.cn/food/star/hebaodan_youjian-ecdd3bc2083df7d4f3f16c3f73b46ad1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,7 +3312,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="http://s2.boohee.cn/food/star/miantiao_fuqiangfen_zhu-f98e799ed60d85715309652831e34fb4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3349,7 +3358,7 @@
         <xdr:cNvPr id="2056" name="Picture 8" descr="http://s2.boohee.cn/food/star/niuru_junzhi-a27fe2d98e468f5174cff506bd4ac30e.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3395,7 +3404,7 @@
         <xdr:cNvPr id="2057" name="Picture 9" descr="http://s2.boohee.cn/food/star/pingguo_junzhi-8a4b1966ee455751bdabeba92fe6aea7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3441,7 +3450,7 @@
         <xdr:cNvPr id="2058" name="Picture 10" descr="http://s2.boohee.cn/food/star/niurou_shou-35b252e8a7dc82545fd8d0c682ab7634.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3496,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="http://s2.boohee.cn/food/star/dounai-afbb33b4205be58a6579cef0075cc635.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3533,7 +3542,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="http://s2.boohee.cn/food/star/kuihuaziren-35ecdeccf4b3ab68b27ed7fa3f370c88.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3579,7 +3588,7 @@
         <xdr:cNvPr id="2061" name="Picture 13" descr="http://s2.boohee.cn/food/star/doufu_junzhi-c00d094a7a0e51393cb567814df97922.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3634,7 @@
         <xdr:cNvPr id="2062" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000E080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3680,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="http://s2.boohee.cn/food/star/kaifengguantangbao-0c0a391c85d62d20f460de7ebd72d3fc.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3683,7 +3692,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3703,7 +3712,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3732,7 +3741,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="http://s2.boohee.cn/food/star/xiangjiao-a02e0b0a9cc11382f89c023a0abe5c26.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3744,7 +3753,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3764,7 +3773,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3793,7 +3802,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="http://s2.boohee.cn/food/star/tao_junzhi-cfad8f99b49568df71206244fe6102a8.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3805,7 +3814,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3825,7 +3834,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -3849,7 +3858,7 @@
         <xdr:cNvPr id="19" name="Picture 14" descr="http://s2.boohee.cn/food/star/lvdouzhou-a25d46fa0205ecd0a0f89b573bfc420d.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3904,7 @@
         <xdr:cNvPr id="1025" name="Picture 1" descr="http://s2.boohee.cn/food/star/shucaishala-5a8e9eb8cbb4194b4afffa720d2a0bf7.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3950,7 @@
         <xdr:cNvPr id="1026" name="Picture 2" descr="http://s2.boohee.cn/food/star/jinqiangyushucaishala_wushalajiang-ce4ca0c7cc32257f837c393f3050c877.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +3996,7 @@
         <xdr:cNvPr id="1027" name="Picture 3" descr="http://s2.boohee.cn/food/star/shalajiang-bf0caecb9e24b8497fdfd42da8740fc4.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,7 +4042,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="http://s2.boohee.cn/food/star/jidanbing-aae559b0f1fdc016e0c99bd0e9f52834.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4045,7 +4054,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4065,7 +4074,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4094,7 +4103,7 @@
         <xdr:cNvPr id="25" name="Picture 24" descr="http://s2.boohee.cn/food/star/qingdunpaigu-9d0bb3a3c28831ec6c8752a9267b7d9b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4106,7 +4115,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4126,7 +4135,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4155,7 +4164,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/xigua_junzhi-21ca9c4ebf052c715635aee817282201.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4201,7 +4210,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/yumitangxiaomizhou-24b50dc800209120bc96d8e0ef1bca74.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4256,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/heijiaoniupai-974c0876b4ab5c27293c84f299326ba1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,7 +4302,7 @@
         <xdr:cNvPr id="28" name="Picture 27" descr="http://s2.boohee.cn/food/star/hamigua2-bb623c64e63a628e505152d1da65ce43.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4305,7 +4314,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4325,7 +4334,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4354,7 +4363,7 @@
         <xdr:cNvPr id="5" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,7 +4409,7 @@
         <xdr:cNvPr id="6" name="Picture 2" descr="http://s2.boohee.cn/food/star/jiachangbianyu-88c0bd723f724deae70a31371a4ea6b2.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4446,7 +4455,7 @@
         <xdr:cNvPr id="31" name="Picture 30" descr="http://s2.boohee.cn/food/star/sinianguosetianxiangrouzong-5aa850b28f0f727f59c66ede2518c00b.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD976885-6BD9-4158-9074-E8D4F5C043B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD976885-6BD9-4158-9074-E8D4F5C043B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4458,7 +4467,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4478,7 +4487,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4592,7 +4601,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4633,7 +4642,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{03EC93D8-1A21-43AE-A531-57BFC27E6B11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4674,7 +4683,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51C23CAD-E55C-4C0C-BE00-6DB9ADC1C985}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,7 +4724,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26240984-721A-4AAE-8CD9-47CFECCCCA78}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4756,7 +4765,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4797,7 +4806,7 @@
         <xdr:cNvPr id="7" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,7 +4847,7 @@
         <xdr:cNvPr id="9" name="Picture 5" descr="http://s2.boohee.cn/food/star/maidanglaoyuantong-d2090944d85d7116f23b4ecbebcef137.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BE32A9A-71AA-4BB8-A72A-042ACF358AC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +4898,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06277956-5E5E-4673-9F15-CB39F2F968E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5461,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C242" sqref="C242"/>
       <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
@@ -15373,21 +15382,21 @@
         <v>60</v>
       </c>
       <c r="H283" s="53">
-        <f t="shared" ref="H282:H290" si="85">F283*G283</f>
+        <f t="shared" ref="H283:H287" si="85">F283*G283</f>
         <v>120</v>
       </c>
       <c r="I283" s="53">
         <v>151</v>
       </c>
       <c r="J283" s="53">
-        <f t="shared" ref="J282:J290" si="86">H283*I283/100</f>
+        <f t="shared" ref="J283:J287" si="86">H283*I283/100</f>
         <v>181.2</v>
       </c>
       <c r="K283" s="53">
         <v>12.1</v>
       </c>
       <c r="L283" s="53">
-        <f t="shared" ref="L282:L290" si="87">H283*K283/100</f>
+        <f t="shared" ref="L283" si="87">H283*K283/100</f>
         <v>14.52</v>
       </c>
       <c r="M283" s="55"/>
@@ -15761,14 +15770,14 @@
         <v>100</v>
       </c>
       <c r="H297" s="53">
-        <f t="shared" ref="H297:H304" si="95">F297*G297</f>
+        <f t="shared" ref="H297:H301" si="95">F297*G297</f>
         <v>100</v>
       </c>
       <c r="I297" s="53">
         <v>29.82</v>
       </c>
       <c r="J297" s="53">
-        <f t="shared" ref="J297:J304" si="96">H297*I297/100</f>
+        <f t="shared" ref="J297:J301" si="96">H297*I297/100</f>
         <v>29.82</v>
       </c>
       <c r="K297" s="53">
@@ -16131,8 +16140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16275,85 +16284,94 @@
         <v>111.7</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:5">
       <c r="B17" s="67">
         <v>43632</v>
       </c>
       <c r="C17" s="3">
         <v>110.4</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="D17" s="3">
+        <v>111.8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="67">
         <v>43633</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="C18" s="3">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="67">
         <v>43634</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:5">
       <c r="B20" s="67">
         <v>43635</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:5">
       <c r="B21" s="67">
         <v>43636</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:5">
       <c r="B22" s="67">
         <v>43637</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:5">
       <c r="B23" s="67">
         <v>43638</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:5">
       <c r="B24" s="67">
         <v>43639</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:5">
       <c r="B25" s="67">
         <v>43640</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:5">
       <c r="B26" s="67">
         <v>43641</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:5">
       <c r="B27" s="67">
         <v>43642</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:5">
       <c r="B28" s="67">
         <v>43643</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:5">
       <c r="B29" s="67">
         <v>43644</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:5">
       <c r="B30" s="67">
         <v>43645</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:5">
       <c r="B31" s="67">
         <v>43646</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:5">
       <c r="B32" s="67">
         <v>43647</v>
       </c>
